--- a/Discharge/Discharge_2019/Discharge_July26.xlsx
+++ b/Discharge/Discharge_2019/Discharge_July26.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adminliveunc-my.sharepoint.com/personal/kriddie_ad_unc_edu/Documents/Ecuador/Ecuador/Analysis/Discharge/Discharge_ReCalibrated/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/LongTermData_CayambeCoca/Discharge/Discharge_2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="11_074541A840332586D7828CE7C394A977F4C9024C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D75C1C67-85E9-456A-B992-15C50399C3B4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C298ADBF-149F-6641-9C65-1DB81743D1C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9950" yWindow="880" windowWidth="7680" windowHeight="8950" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2680" yWindow="880" windowWidth="10000" windowHeight="14900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stn3" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
   <si>
     <t>Station 4</t>
   </si>
@@ -68,13 +68,24 @@
   <si>
     <t>Qtotal</t>
   </si>
+  <si>
+    <t>New depth</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -102,9 +113,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,15 +397,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -404,7 +416,7 @@
         <v>0.47916666666666669</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -424,7 +436,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.75</v>
       </c>
@@ -443,7 +455,7 @@
         <v>0.22214999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.8</v>
       </c>
@@ -462,7 +474,7 @@
         <v>2.2499999999999989E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.85</v>
       </c>
@@ -481,7 +493,7 @@
         <v>2.4500000000000025E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.9</v>
       </c>
@@ -500,7 +512,7 @@
         <v>2.1200000000000021E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.95</v>
       </c>
@@ -519,7 +531,7 @@
         <v>2.1999999999999974E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -538,7 +550,7 @@
         <v>1.3499999999999984E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1.05</v>
       </c>
@@ -557,7 +569,7 @@
         <v>1.3750000000000073E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1.1000000000000001</v>
       </c>
@@ -576,7 +588,7 @@
         <v>3.6899999999999863E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1.1499999999999999</v>
       </c>
@@ -595,7 +607,7 @@
         <v>3.1499999999999889E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1.2</v>
       </c>
@@ -614,7 +626,7 @@
         <v>2.7300000000000147E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1.25</v>
       </c>
@@ -633,7 +645,7 @@
         <v>8.9999999999999681E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1.3</v>
       </c>
@@ -652,7 +664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -672,7 +684,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0.75</v>
       </c>
@@ -689,10 +701,10 @@
       </c>
       <c r="F19">
         <f>SUM(E19:E37)</f>
-        <v>1.2706979999999994E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1.5975959999999994E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0.8</v>
       </c>
@@ -712,7 +724,7 @@
         <v>1.2869999999999993E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0.85</v>
       </c>
@@ -732,7 +744,7 @@
         <v>1.4014000000000012E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0.9</v>
       </c>
@@ -752,7 +764,7 @@
         <v>1.2126400000000012E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0.95</v>
       </c>
@@ -772,7 +784,7 @@
         <v>1.2583999999999985E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
@@ -792,7 +804,7 @@
         <v>7.7219999999999915E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1.05</v>
       </c>
@@ -812,7 +824,7 @@
         <v>7.8650000000000432E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1.1000000000000001</v>
       </c>
@@ -832,7 +844,7 @@
         <v>2.1106799999999924E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1.1499999999999999</v>
       </c>
@@ -852,7 +864,7 @@
         <v>1.8017999999999934E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1.2</v>
       </c>
@@ -872,7 +884,7 @@
         <v>1.5615600000000085E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1.25</v>
       </c>
@@ -892,7 +904,7 @@
         <v>5.147999999999982E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1.3</v>
       </c>
@@ -912,7 +924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <f>MEDIAN(A19:A30)</f>
         <v>1.0249999999999999</v>
@@ -924,6 +936,271 @@
       <c r="C32">
         <f>AVERAGE(C24:C25)</f>
         <v>0.10500000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0.75</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <f>C19*2.54</f>
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <f>A36</f>
+        <v>0.75</v>
+      </c>
+      <c r="F36">
+        <f>SUM(E36:E54)</f>
+        <v>3.2275729199999985E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0.8</v>
+      </c>
+      <c r="B37">
+        <v>0.34320000000000001</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37:C47" si="8">C20*2.54</f>
+        <v>0.127</v>
+      </c>
+      <c r="D37">
+        <f>(A37+(A38-A37)/2)</f>
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="E37">
+        <f>(D37-D36)*(B37)*C37</f>
+        <v>3.2689799999999982E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0.85</v>
+      </c>
+      <c r="B38">
+        <v>0.40039999999999998</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="8"/>
+        <v>0.17780000000000001</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38:D39" si="9">(A38+(A39-A38)/2)</f>
+        <v>0.875</v>
+      </c>
+      <c r="E38">
+        <f>(D38-D37)*(B38)*C38</f>
+        <v>3.5595560000000032E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0.9</v>
+      </c>
+      <c r="B39">
+        <v>0.30315999999999999</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="8"/>
+        <v>0.20320000000000002</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="9"/>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ref="E39:E47" si="10">(D39-D38)*(B39)*C39</f>
+        <v>3.0801056000000029E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0.95</v>
+      </c>
+      <c r="B40">
+        <v>0.25168000000000001</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="8"/>
+        <v>0.254</v>
+      </c>
+      <c r="D40">
+        <f>(A40+(A41-A40)/2)</f>
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="10"/>
+        <v>3.1963359999999958E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>0.15444000000000002</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="8"/>
+        <v>0.254</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ref="D41:D47" si="11">(A41+(A42-A41)/2)</f>
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="10"/>
+        <v>1.9613879999999979E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>1.05</v>
+      </c>
+      <c r="B42">
+        <v>0.14300000000000002</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="8"/>
+        <v>0.27939999999999998</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="11"/>
+        <v>1.0750000000000002</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="10"/>
+        <v>1.9977100000000106E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B43">
+        <v>0.23451999999999998</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="8"/>
+        <v>0.4572</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="11"/>
+        <v>1.125</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="10"/>
+        <v>5.3611271999999804E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="B44">
+        <v>0.20019999999999999</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="8"/>
+        <v>0.4572</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="11"/>
+        <v>1.1749999999999998</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="10"/>
+        <v>4.5765719999999836E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>1.2</v>
+      </c>
+      <c r="B45">
+        <v>0.22308</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="8"/>
+        <v>0.35560000000000003</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="11"/>
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="10"/>
+        <v>3.9663624000000211E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1.25</v>
+      </c>
+      <c r="B46">
+        <v>0.1716</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="8"/>
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="11"/>
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="10"/>
+        <v>1.3075919999999954E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>1.3</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="11"/>
+        <v>0.65</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -935,13 +1212,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -953,7 +1230,7 @@
       </c>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -973,7 +1250,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.9</v>
       </c>
@@ -992,7 +1269,7 @@
         <v>0.23549999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.95</v>
       </c>
@@ -1011,7 +1288,7 @@
         <v>3.2399999999999977E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1030,7 +1307,7 @@
         <v>2.5649999999999968E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1.05</v>
       </c>
@@ -1049,7 +1326,7 @@
         <v>3.0600000000000162E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1.1000000000000001</v>
       </c>
@@ -1068,7 +1345,7 @@
         <v>3.7399999999999871E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1.1499999999999999</v>
       </c>
@@ -1087,7 +1364,7 @@
         <v>4.0249999999999855E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1.2</v>
       </c>
@@ -1106,7 +1383,7 @@
         <v>2.850000000000015E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1.25</v>
       </c>
@@ -1125,7 +1402,7 @@
         <v>2.5499999999999908E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1.3</v>
       </c>
@@ -1144,7 +1421,7 @@
         <v>1.520000000000008E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1.35</v>
       </c>
@@ -1163,7 +1440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1183,7 +1460,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0.9</v>
       </c>
@@ -1203,7 +1480,7 @@
         <v>1.3470599999999998E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0.95</v>
       </c>
@@ -1223,7 +1500,7 @@
         <v>1.8532799999999986E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1243,7 +1520,7 @@
         <v>1.4671799999999981E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1.05</v>
       </c>
@@ -1263,7 +1540,7 @@
         <v>1.750320000000009E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1.1000000000000001</v>
       </c>
@@ -1283,7 +1560,7 @@
         <v>2.1392799999999925E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1.1499999999999999</v>
       </c>
@@ -1303,7 +1580,7 @@
         <v>2.3022999999999911E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1.2</v>
       </c>
@@ -1323,7 +1600,7 @@
         <v>1.6302000000000087E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1.25</v>
       </c>
@@ -1343,7 +1620,7 @@
         <v>1.4585999999999948E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1.3</v>
       </c>
@@ -1363,7 +1640,7 @@
         <v>8.6944000000000463E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1.35</v>
       </c>
@@ -1383,7 +1660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <f>(A26-A17)/2+A17</f>
         <v>1.125</v>
@@ -1587,18 +1864,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1620,14 +1897,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A01FB79-2289-4693-AF82-3855C86D5E77}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4074C600-3367-443F-A884-EF3777FAE6FE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -1641,4 +1910,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A01FB79-2289-4693-AF82-3855C86D5E77}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>